--- a/Code/Results/Cases/Case_0_79/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_79/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9473240390475426</v>
+        <v>1.033472160775461</v>
       </c>
       <c r="D2">
-        <v>0.9587649953003816</v>
+        <v>1.034309879571508</v>
       </c>
       <c r="E2">
-        <v>0.9648309496153648</v>
+        <v>1.041408002600597</v>
       </c>
       <c r="F2">
-        <v>0.9651079253601301</v>
+        <v>1.049445165721083</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0.9712031323956936</v>
+        <v>1.038596700309459</v>
       </c>
       <c r="K2">
-        <v>0.9708303448249603</v>
+        <v>1.037109722035751</v>
       </c>
       <c r="L2">
-        <v>0.9768030072809337</v>
+        <v>1.044187602891931</v>
       </c>
       <c r="M2">
-        <v>0.9770757589519253</v>
+        <v>1.052202204439152</v>
       </c>
       <c r="N2">
-        <v>0.9918621084326824</v>
+        <v>1.016435734895482</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9580323245240209</v>
+        <v>1.03544866148694</v>
       </c>
       <c r="D3">
-        <v>0.9681591678231329</v>
+        <v>1.036092549598916</v>
       </c>
       <c r="E3">
-        <v>0.9743509785978681</v>
+        <v>1.043218299993071</v>
       </c>
       <c r="F3">
-        <v>0.9755730298058088</v>
+        <v>1.051456291892649</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>0.9797363426146731</v>
+        <v>1.04021072873558</v>
       </c>
       <c r="K3">
-        <v>0.9792163482555206</v>
+        <v>1.038698961400054</v>
       </c>
       <c r="L3">
-        <v>0.9853229149731659</v>
+        <v>1.045805899371433</v>
       </c>
       <c r="M3">
-        <v>0.9865283028622079</v>
+        <v>1.054022485445754</v>
       </c>
       <c r="N3">
-        <v>0.9950201726756273</v>
+        <v>1.017006909062117</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9646722042433792</v>
+        <v>1.036723925923738</v>
       </c>
       <c r="D4">
-        <v>0.9739918730182324</v>
+        <v>1.03724276409273</v>
       </c>
       <c r="E4">
-        <v>0.9802623191384089</v>
+        <v>1.044386385570991</v>
       </c>
       <c r="F4">
-        <v>0.9820733826900204</v>
+        <v>1.052754473939848</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9850249025562955</v>
+        <v>1.041251318080537</v>
       </c>
       <c r="K4">
-        <v>0.9844146704125111</v>
+        <v>1.039723590024914</v>
       </c>
       <c r="L4">
-        <v>0.9906049461114553</v>
+        <v>1.046849325335707</v>
       </c>
       <c r="M4">
-        <v>0.9923930922168454</v>
+        <v>1.055196793833903</v>
       </c>
       <c r="N4">
-        <v>0.9969741646758038</v>
+        <v>1.017374263863754</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9674000857446634</v>
+        <v>1.037259193151547</v>
       </c>
       <c r="D5">
-        <v>0.9763897807750335</v>
+        <v>1.037725545878715</v>
       </c>
       <c r="E5">
-        <v>0.9826926722780058</v>
+        <v>1.044876679306268</v>
       </c>
       <c r="F5">
-        <v>0.9847464794973155</v>
+        <v>1.053299497594486</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628352</v>
       </c>
       <c r="J5">
-        <v>0.9871968480210487</v>
+        <v>1.041687892178773</v>
       </c>
       <c r="K5">
-        <v>0.9865497731808014</v>
+        <v>1.040153472794065</v>
       </c>
       <c r="L5">
-        <v>0.9927745969586713</v>
+        <v>1.047287109717779</v>
       </c>
       <c r="M5">
-        <v>0.9948032341160061</v>
+        <v>1.055689647449766</v>
       </c>
       <c r="N5">
-        <v>0.9977757582737921</v>
+        <v>1.017528171583642</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9678545356951356</v>
+        <v>1.037349017469049</v>
       </c>
       <c r="D6">
-        <v>0.9767893500744663</v>
+        <v>1.037806562578779</v>
       </c>
       <c r="E6">
-        <v>0.9830976549091675</v>
+        <v>1.044958957242604</v>
       </c>
       <c r="F6">
-        <v>0.9851919475165543</v>
+        <v>1.053390967180269</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9875586330586453</v>
+        <v>1.041761143266605</v>
       </c>
       <c r="K6">
-        <v>0.9869054334284044</v>
+        <v>1.040225601453058</v>
       </c>
       <c r="L6">
-        <v>0.9931360218641737</v>
+        <v>1.047360565054869</v>
       </c>
       <c r="M6">
-        <v>0.9952047868821698</v>
+        <v>1.05577235192405</v>
       </c>
       <c r="N6">
-        <v>0.9979092261580902</v>
+        <v>1.017553982574979</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9647088969671725</v>
+        <v>1.036731081514729</v>
       </c>
       <c r="D7">
-        <v>0.9740241210062567</v>
+        <v>1.037249218039028</v>
       </c>
       <c r="E7">
-        <v>0.9802950030003754</v>
+        <v>1.044392939896061</v>
       </c>
       <c r="F7">
-        <v>0.9821093286413451</v>
+        <v>1.052761759418986</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>0.9850541206126491</v>
+        <v>1.041257155075224</v>
       </c>
       <c r="K7">
-        <v>0.9844433920100506</v>
+        <v>1.039729337537439</v>
       </c>
       <c r="L7">
-        <v>0.9906341317959355</v>
+        <v>1.046855178432661</v>
       </c>
       <c r="M7">
-        <v>0.9924255084751477</v>
+        <v>1.05520338258419</v>
       </c>
       <c r="N7">
-        <v>0.996984951749584</v>
+        <v>1.017376322453185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9510064846277302</v>
+        <v>1.034140901044235</v>
       </c>
       <c r="D8">
-        <v>0.9619937699758854</v>
+        <v>1.034913034895386</v>
       </c>
       <c r="E8">
-        <v>0.9681028755873377</v>
+        <v>1.042020496078486</v>
       </c>
       <c r="F8">
-        <v>0.9687042375367132</v>
+        <v>1.050125501164186</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9741380622408486</v>
+        <v>1.039142965960822</v>
       </c>
       <c r="K8">
-        <v>0.9737144175608931</v>
+        <v>1.037647593373324</v>
       </c>
       <c r="L8">
-        <v>0.979732979940573</v>
+        <v>1.04473529534406</v>
       </c>
       <c r="M8">
-        <v>0.9803255074735504</v>
+        <v>1.052818121420896</v>
       </c>
       <c r="N8">
-        <v>0.9929489245472878</v>
+        <v>1.016629232106545</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9243431122017192</v>
+        <v>1.02954756710044</v>
       </c>
       <c r="D9">
-        <v>0.9386595341539398</v>
+        <v>1.03077027400614</v>
       </c>
       <c r="E9">
-        <v>0.9444590338000894</v>
+        <v>1.037813782196746</v>
       </c>
       <c r="F9">
-        <v>0.9427230243187165</v>
+        <v>1.045454937167117</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9528827099468931</v>
+        <v>1.035387577612421</v>
       </c>
       <c r="K9">
-        <v>0.9528329295982272</v>
+        <v>1.033950006735893</v>
       </c>
       <c r="L9">
-        <v>0.9585224432698404</v>
+        <v>1.040970454513999</v>
       </c>
       <c r="M9">
-        <v>0.9568191712830847</v>
+        <v>1.04858697709916</v>
       </c>
       <c r="N9">
-        <v>0.9850686246942448</v>
+        <v>1.015295372722479</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9043484099473467</v>
+        <v>1.026464305950678</v>
       </c>
       <c r="D10">
-        <v>0.921233668964092</v>
+        <v>1.027989623692742</v>
       </c>
       <c r="E10">
-        <v>0.9268049930057578</v>
+        <v>1.034990439066695</v>
       </c>
       <c r="F10">
-        <v>0.9233283004151027</v>
+        <v>1.042322909519052</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9369479432126779</v>
+        <v>1.032862672350955</v>
       </c>
       <c r="K10">
-        <v>0.9371872744798569</v>
+        <v>1.03146408867505</v>
       </c>
       <c r="L10">
-        <v>0.9426347564565185</v>
+        <v>1.038439648565407</v>
       </c>
       <c r="M10">
-        <v>0.9392351120141005</v>
+        <v>1.045746068158165</v>
       </c>
       <c r="N10">
-        <v>0.9791556328663686</v>
+        <v>1.014394034301038</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8950054266303942</v>
+        <v>1.025123900402846</v>
       </c>
       <c r="D11">
-        <v>0.9131142569667506</v>
+        <v>1.026780828315563</v>
       </c>
       <c r="E11">
-        <v>0.9185800428959363</v>
+        <v>1.033763139320058</v>
       </c>
       <c r="F11">
-        <v>0.9142917536441006</v>
+        <v>1.040962044892833</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9295073411661</v>
+        <v>1.031764036587678</v>
       </c>
       <c r="K11">
-        <v>0.9298844283315736</v>
+        <v>1.030382448758077</v>
       </c>
       <c r="L11">
-        <v>0.9352201207338234</v>
+        <v>1.037338555146756</v>
       </c>
       <c r="M11">
-        <v>0.9310337224672919</v>
+        <v>1.044510850272172</v>
       </c>
       <c r="N11">
-        <v>0.9763960268013863</v>
+        <v>1.014000783690352</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8914142279371662</v>
+        <v>1.02462518434037</v>
       </c>
       <c r="D12">
-        <v>0.9099975085832581</v>
+        <v>1.026331089032654</v>
       </c>
       <c r="E12">
-        <v>0.9154229059150675</v>
+        <v>1.033306523602899</v>
       </c>
       <c r="F12">
-        <v>0.9108228062241127</v>
+        <v>1.040455829196424</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9266486253057042</v>
+        <v>1.031355129511133</v>
       </c>
       <c r="K12">
-        <v>0.9270791241618945</v>
+        <v>1.029979872410065</v>
       </c>
       <c r="L12">
-        <v>0.9323720640021288</v>
+        <v>1.036928750016816</v>
       </c>
       <c r="M12">
-        <v>0.9278841357128653</v>
+        <v>1.044051245781936</v>
       </c>
       <c r="N12">
-        <v>0.9753362633093662</v>
+        <v>1.013854259460922</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8921903568258642</v>
+        <v>1.024732198639214</v>
       </c>
       <c r="D13">
-        <v>0.9106709009091151</v>
+        <v>1.026427593465892</v>
       </c>
       <c r="E13">
-        <v>0.9161050187395351</v>
+        <v>1.033404503200311</v>
       </c>
       <c r="F13">
-        <v>0.911572303090789</v>
+        <v>1.04056444765997</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405786</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9272663850128373</v>
+        <v>1.031442879170226</v>
       </c>
       <c r="K13">
-        <v>0.9276853186164391</v>
+        <v>1.030066263295587</v>
       </c>
       <c r="L13">
-        <v>0.9329874880031387</v>
+        <v>1.037016691637134</v>
       </c>
       <c r="M13">
-        <v>0.9285646869973218</v>
+        <v>1.04414986864845</v>
       </c>
       <c r="N13">
-        <v>0.9755652478347608</v>
+        <v>1.013885710053951</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8947111613091444</v>
+        <v>1.025082693470842</v>
       </c>
       <c r="D14">
-        <v>0.9128587806382563</v>
+        <v>1.026743667941064</v>
       </c>
       <c r="E14">
-        <v>0.9183212534174148</v>
+        <v>1.033725410602492</v>
       </c>
       <c r="F14">
-        <v>0.9140074120429962</v>
+        <v>1.040920215997153</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9292730676029846</v>
+        <v>1.03173025316356</v>
       </c>
       <c r="K14">
-        <v>0.9296545216398971</v>
+        <v>1.030349188269273</v>
       </c>
       <c r="L14">
-        <v>0.9349867063669181</v>
+        <v>1.037304697185591</v>
       </c>
       <c r="M14">
-        <v>0.9307755828908123</v>
+        <v>1.044472875477545</v>
       </c>
       <c r="N14">
-        <v>0.9763091668409792</v>
+        <v>1.013988681248464</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8962476919080201</v>
+        <v>1.025298534092969</v>
       </c>
       <c r="D15">
-        <v>0.9141929427663946</v>
+        <v>1.026938313214992</v>
       </c>
       <c r="E15">
-        <v>0.9196727226962906</v>
+        <v>1.033923033182025</v>
       </c>
       <c r="F15">
-        <v>0.9154923089479712</v>
+        <v>1.041139319053472</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9304964000735341</v>
+        <v>1.031907203763831</v>
       </c>
       <c r="K15">
-        <v>0.9308550711827669</v>
+        <v>1.030523400046157</v>
       </c>
       <c r="L15">
-        <v>0.9362055803967314</v>
+        <v>1.037482038878835</v>
       </c>
       <c r="M15">
-        <v>0.9321235969990473</v>
+        <v>1.04467178525024</v>
       </c>
       <c r="N15">
-        <v>0.9767627548059605</v>
+        <v>1.014052064873853</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9049526138270193</v>
+        <v>1.026553149464475</v>
       </c>
       <c r="D16">
-        <v>0.9217592700990704</v>
+        <v>1.028069745193749</v>
       </c>
       <c r="E16">
-        <v>0.9273374424411598</v>
+        <v>1.035071788229111</v>
       </c>
       <c r="F16">
-        <v>0.9239132620478128</v>
+        <v>1.042413124769006</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9374292653576931</v>
+        <v>1.032935470802503</v>
       </c>
       <c r="K16">
-        <v>0.9376597472132212</v>
+        <v>1.031535761621134</v>
       </c>
       <c r="L16">
-        <v>0.9431144867443807</v>
+        <v>1.03851261219206</v>
       </c>
       <c r="M16">
-        <v>0.9397658409205638</v>
+        <v>1.045827936183995</v>
       </c>
       <c r="N16">
-        <v>0.9793341987336748</v>
+        <v>1.014420069899896</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9102182797661467</v>
+        <v>1.027338688704416</v>
       </c>
       <c r="D17">
-        <v>0.9263425444856758</v>
+        <v>1.028778172292842</v>
       </c>
       <c r="E17">
-        <v>0.9319805213477853</v>
+        <v>1.03579107652728</v>
       </c>
       <c r="F17">
-        <v>0.92901417283498</v>
+        <v>1.043210878276292</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9416246399427646</v>
+        <v>1.033579030843156</v>
       </c>
       <c r="K17">
-        <v>0.9417782996617029</v>
+        <v>1.032169375539016</v>
       </c>
       <c r="L17">
-        <v>0.9472964356289976</v>
+        <v>1.039157645108924</v>
       </c>
       <c r="M17">
-        <v>0.9443928996729485</v>
+        <v>1.046551779665148</v>
       </c>
       <c r="N17">
-        <v>0.9808908265824862</v>
+        <v>1.014650110295421</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9132249581557241</v>
+        <v>1.027796367829581</v>
       </c>
       <c r="D18">
-        <v>0.9289616707361217</v>
+        <v>1.029190928668443</v>
       </c>
       <c r="E18">
-        <v>0.9346338943345436</v>
+        <v>1.036210166335453</v>
       </c>
       <c r="F18">
-        <v>0.9319291388259959</v>
+        <v>1.043675745109476</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9440206381600653</v>
+        <v>1.033953895354392</v>
       </c>
       <c r="K18">
-        <v>0.9441306733391803</v>
+        <v>1.032538449618426</v>
       </c>
       <c r="L18">
-        <v>0.9496851271723483</v>
+        <v>1.039533378106239</v>
       </c>
       <c r="M18">
-        <v>0.9470362930512948</v>
+        <v>1.04697349637915</v>
       </c>
       <c r="N18">
-        <v>0.9817799346676664</v>
+        <v>1.01478400341876</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9142396565115912</v>
+        <v>1.027952338491098</v>
       </c>
       <c r="D19">
-        <v>0.9298459155182254</v>
+        <v>1.029331591116166</v>
       </c>
       <c r="E19">
-        <v>0.9355297131044857</v>
+        <v>1.036352988039169</v>
       </c>
       <c r="F19">
-        <v>0.9329132727493432</v>
+        <v>1.043834177304363</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044801</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9448293082595031</v>
+        <v>1.034081628122467</v>
       </c>
       <c r="K19">
-        <v>0.9449246601959645</v>
+        <v>1.032664209843082</v>
       </c>
       <c r="L19">
-        <v>0.9504913902647721</v>
+        <v>1.039661408591046</v>
       </c>
       <c r="M19">
-        <v>0.9479286061370481</v>
+        <v>1.047117208714369</v>
       </c>
       <c r="N19">
-        <v>0.9820800278113537</v>
+        <v>1.014829609319113</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9096601303080354</v>
+        <v>1.027254461006635</v>
       </c>
       <c r="D20">
-        <v>0.9258565049350063</v>
+        <v>1.028702212232167</v>
       </c>
       <c r="E20">
-        <v>0.9314881322770439</v>
+        <v>1.035713951343408</v>
       </c>
       <c r="F20">
-        <v>0.9284732373266461</v>
+        <v>1.04312533354489</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.9411798889987518</v>
+        <v>1.033510036188973</v>
       </c>
       <c r="K20">
-        <v>0.9413416662169261</v>
+        <v>1.032101446870572</v>
       </c>
       <c r="L20">
-        <v>0.9468530697925415</v>
+        <v>1.039088491457178</v>
       </c>
       <c r="M20">
-        <v>0.9439022963160758</v>
+        <v>1.046474168867376</v>
       </c>
       <c r="N20">
-        <v>0.9807257954233161</v>
+        <v>1.014625458730945</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8939723487510511</v>
+        <v>1.024979504615255</v>
       </c>
       <c r="D21">
-        <v>0.9122174244825136</v>
+        <v>1.026650612479897</v>
       </c>
       <c r="E21">
-        <v>0.9176715818292774</v>
+        <v>1.033630932052993</v>
       </c>
       <c r="F21">
-        <v>0.9132935885681446</v>
+        <v>1.040815471462718</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9286848983747188</v>
+        <v>1.031645651643397</v>
       </c>
       <c r="K21">
-        <v>0.9290773239561424</v>
+        <v>1.030265896380904</v>
       </c>
       <c r="L21">
-        <v>0.9344007054997785</v>
+        <v>1.037219909277214</v>
       </c>
       <c r="M21">
-        <v>0.9301275183998146</v>
+        <v>1.044377780019822</v>
       </c>
       <c r="N21">
-        <v>0.976091104369924</v>
+        <v>1.013958371379995</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8833972829495396</v>
+        <v>1.023544334081193</v>
       </c>
       <c r="D22">
-        <v>0.9030482907042053</v>
+        <v>1.025356403140517</v>
       </c>
       <c r="E22">
-        <v>0.9083838757021679</v>
+        <v>1.032316949953445</v>
       </c>
       <c r="F22">
-        <v>0.9030878046054237</v>
+        <v>1.03935893215649</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9202698249814684</v>
+        <v>1.030468655047859</v>
       </c>
       <c r="K22">
-        <v>0.9208205002186183</v>
+        <v>1.029107131678038</v>
       </c>
       <c r="L22">
-        <v>0.9260184299381886</v>
+        <v>1.036040359360393</v>
       </c>
       <c r="M22">
-        <v>0.9208589865822082</v>
+        <v>1.043055116037392</v>
       </c>
       <c r="N22">
-        <v>0.9729728304561335</v>
+        <v>1.013536319569406</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8890780548704851</v>
+        <v>1.024305611183444</v>
       </c>
       <c r="D23">
-        <v>0.90797124251203</v>
+        <v>1.026042902609284</v>
       </c>
       <c r="E23">
-        <v>0.9133704182945434</v>
+        <v>1.033013933171654</v>
       </c>
       <c r="F23">
-        <v>0.9085675009303628</v>
+        <v>1.040131482123312</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9247893752215801</v>
+        <v>1.031093064547596</v>
       </c>
       <c r="K23">
-        <v>0.9252547591947882</v>
+        <v>1.029721866172882</v>
       </c>
       <c r="L23">
-        <v>0.9305199514300343</v>
+        <v>1.036666114214742</v>
       </c>
       <c r="M23">
-        <v>0.9258361156323104</v>
+        <v>1.043756728090608</v>
       </c>
       <c r="N23">
-        <v>0.9746471929729135</v>
+        <v>1.013760308969049</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9099125326493471</v>
+        <v>1.027292521460822</v>
       </c>
       <c r="D24">
-        <v>0.9260762917774218</v>
+        <v>1.028736536725847</v>
       </c>
       <c r="E24">
-        <v>0.9317107901476334</v>
+        <v>1.035748802311415</v>
       </c>
       <c r="F24">
-        <v>0.9287178479725101</v>
+        <v>1.043163988914263</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9413810096990106</v>
+        <v>1.033541213488348</v>
       </c>
       <c r="K24">
-        <v>0.9415391153340135</v>
+        <v>1.032132142462995</v>
       </c>
       <c r="L24">
-        <v>0.94705356301479</v>
+        <v>1.039119740571732</v>
       </c>
       <c r="M24">
-        <v>0.9441241492490764</v>
+        <v>1.046509239356229</v>
       </c>
       <c r="N24">
-        <v>0.9808004237928004</v>
+        <v>1.014636598593961</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.931582479621497</v>
+        <v>1.030738653274016</v>
       </c>
       <c r="D25">
-        <v>0.9449845831003547</v>
+        <v>1.031844499223362</v>
       </c>
       <c r="E25">
-        <v>0.9508675130893675</v>
+        <v>1.038904549512157</v>
       </c>
       <c r="F25">
-        <v>0.9497638171753738</v>
+        <v>1.046665513742671</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9586541190998447</v>
+        <v>1.036362103250247</v>
       </c>
       <c r="K25">
-        <v>0.9585015310576261</v>
+        <v>1.034909511630667</v>
       </c>
       <c r="L25">
-        <v>0.9642796473022056</v>
+        <v>1.04194735393667</v>
       </c>
       <c r="M25">
-        <v>0.9631954871122989</v>
+        <v>1.049684282814682</v>
       </c>
       <c r="N25">
-        <v>0.9872099530351581</v>
+        <v>1.015642309702364</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_79/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_79/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033472160775461</v>
+        <v>0.947324039047541</v>
       </c>
       <c r="D2">
-        <v>1.034309879571508</v>
+        <v>0.9587649953003804</v>
       </c>
       <c r="E2">
-        <v>1.041408002600597</v>
+        <v>0.9648309496153633</v>
       </c>
       <c r="F2">
-        <v>1.049445165721083</v>
+        <v>0.965107925360129</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.038596700309459</v>
+        <v>0.9712031323956922</v>
       </c>
       <c r="K2">
-        <v>1.037109722035751</v>
+        <v>0.970830344824959</v>
       </c>
       <c r="L2">
-        <v>1.044187602891931</v>
+        <v>0.9768030072809325</v>
       </c>
       <c r="M2">
-        <v>1.052202204439152</v>
+        <v>0.9770757589519241</v>
       </c>
       <c r="N2">
-        <v>1.016435734895482</v>
+        <v>0.9918621084326821</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03544866148694</v>
+        <v>0.9580323245240219</v>
       </c>
       <c r="D3">
-        <v>1.036092549598916</v>
+        <v>0.9681591678231339</v>
       </c>
       <c r="E3">
-        <v>1.043218299993071</v>
+        <v>0.974350978597869</v>
       </c>
       <c r="F3">
-        <v>1.051456291892649</v>
+        <v>0.9755730298058095</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.04021072873558</v>
+        <v>0.9797363426146739</v>
       </c>
       <c r="K3">
-        <v>1.038698961400054</v>
+        <v>0.9792163482555214</v>
       </c>
       <c r="L3">
-        <v>1.045805899371433</v>
+        <v>0.9853229149731669</v>
       </c>
       <c r="M3">
-        <v>1.054022485445754</v>
+        <v>0.9865283028622088</v>
       </c>
       <c r="N3">
-        <v>1.017006909062117</v>
+        <v>0.9950201726756276</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036723925923738</v>
+        <v>0.9646722042433783</v>
       </c>
       <c r="D4">
-        <v>1.03724276409273</v>
+        <v>0.9739918730182319</v>
       </c>
       <c r="E4">
-        <v>1.044386385570991</v>
+        <v>0.980262319138408</v>
       </c>
       <c r="F4">
-        <v>1.052754473939848</v>
+        <v>0.9820733826900189</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.041251318080537</v>
+        <v>0.9850249025562948</v>
       </c>
       <c r="K4">
-        <v>1.039723590024914</v>
+        <v>0.9844146704125104</v>
       </c>
       <c r="L4">
-        <v>1.046849325335707</v>
+        <v>0.9906049461114544</v>
       </c>
       <c r="M4">
-        <v>1.055196793833903</v>
+        <v>0.9923930922168442</v>
       </c>
       <c r="N4">
-        <v>1.017374263863754</v>
+        <v>0.9969741646758035</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037259193151547</v>
+        <v>0.967400085744664</v>
       </c>
       <c r="D5">
-        <v>1.037725545878715</v>
+        <v>0.9763897807750339</v>
       </c>
       <c r="E5">
-        <v>1.044876679306268</v>
+        <v>0.9826926722780066</v>
       </c>
       <c r="F5">
-        <v>1.053299497594486</v>
+        <v>0.9847464794973162</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628352</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.041687892178773</v>
+        <v>0.9871968480210491</v>
       </c>
       <c r="K5">
-        <v>1.040153472794065</v>
+        <v>0.9865497731808019</v>
       </c>
       <c r="L5">
-        <v>1.047287109717779</v>
+        <v>0.992774596958672</v>
       </c>
       <c r="M5">
-        <v>1.055689647449766</v>
+        <v>0.9948032341160067</v>
       </c>
       <c r="N5">
-        <v>1.017528171583642</v>
+        <v>0.9977757582737923</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037349017469049</v>
+        <v>0.9678545356951374</v>
       </c>
       <c r="D6">
-        <v>1.037806562578779</v>
+        <v>0.9767893500744678</v>
       </c>
       <c r="E6">
-        <v>1.044958957242604</v>
+        <v>0.9830976549091689</v>
       </c>
       <c r="F6">
-        <v>1.053390967180269</v>
+        <v>0.9851919475165558</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.041761143266605</v>
+        <v>0.9875586330586469</v>
       </c>
       <c r="K6">
-        <v>1.040225601453058</v>
+        <v>0.9869054334284061</v>
       </c>
       <c r="L6">
-        <v>1.047360565054869</v>
+        <v>0.993136021864175</v>
       </c>
       <c r="M6">
-        <v>1.05577235192405</v>
+        <v>0.9952047868821714</v>
       </c>
       <c r="N6">
-        <v>1.017553982574979</v>
+        <v>0.9979092261580907</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036731081514729</v>
+        <v>0.9647088969671723</v>
       </c>
       <c r="D7">
-        <v>1.037249218039028</v>
+        <v>0.9740241210062567</v>
       </c>
       <c r="E7">
-        <v>1.044392939896061</v>
+        <v>0.9802950030003755</v>
       </c>
       <c r="F7">
-        <v>1.052761759418986</v>
+        <v>0.9821093286413451</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.041257155075224</v>
+        <v>0.985054120612649</v>
       </c>
       <c r="K7">
-        <v>1.039729337537439</v>
+        <v>0.9844433920100505</v>
       </c>
       <c r="L7">
-        <v>1.046855178432661</v>
+        <v>0.9906341317959354</v>
       </c>
       <c r="M7">
-        <v>1.05520338258419</v>
+        <v>0.9924255084751474</v>
       </c>
       <c r="N7">
-        <v>1.017376322453185</v>
+        <v>0.996984951749584</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034140901044235</v>
+        <v>0.9510064846277297</v>
       </c>
       <c r="D8">
-        <v>1.034913034895386</v>
+        <v>0.9619937699758851</v>
       </c>
       <c r="E8">
-        <v>1.042020496078486</v>
+        <v>0.9681028755873373</v>
       </c>
       <c r="F8">
-        <v>1.050125501164186</v>
+        <v>0.9687042375367125</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.039142965960822</v>
+        <v>0.9741380622408482</v>
       </c>
       <c r="K8">
-        <v>1.037647593373324</v>
+        <v>0.9737144175608928</v>
       </c>
       <c r="L8">
-        <v>1.04473529534406</v>
+        <v>0.9797329799405725</v>
       </c>
       <c r="M8">
-        <v>1.052818121420896</v>
+        <v>0.9803255074735499</v>
       </c>
       <c r="N8">
-        <v>1.016629232106545</v>
+        <v>0.9929489245472876</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02954756710044</v>
+        <v>0.9243431122017199</v>
       </c>
       <c r="D9">
-        <v>1.03077027400614</v>
+        <v>0.9386595341539401</v>
       </c>
       <c r="E9">
-        <v>1.037813782196746</v>
+        <v>0.94445903380009</v>
       </c>
       <c r="F9">
-        <v>1.045454937167117</v>
+        <v>0.9427230243187174</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.035387577612421</v>
+        <v>0.9528827099468938</v>
       </c>
       <c r="K9">
-        <v>1.033950006735893</v>
+        <v>0.9528329295982279</v>
       </c>
       <c r="L9">
-        <v>1.040970454513999</v>
+        <v>0.958522443269841</v>
       </c>
       <c r="M9">
-        <v>1.04858697709916</v>
+        <v>0.9568191712830856</v>
       </c>
       <c r="N9">
-        <v>1.015295372722479</v>
+        <v>0.9850686246942448</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026464305950678</v>
+        <v>0.9043484099473458</v>
       </c>
       <c r="D10">
-        <v>1.027989623692742</v>
+        <v>0.9212336689640912</v>
       </c>
       <c r="E10">
-        <v>1.034990439066695</v>
+        <v>0.9268049930057571</v>
       </c>
       <c r="F10">
-        <v>1.042322909519052</v>
+        <v>0.9233283004151021</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.032862672350955</v>
+        <v>0.9369479432126767</v>
       </c>
       <c r="K10">
-        <v>1.03146408867505</v>
+        <v>0.9371872744798561</v>
       </c>
       <c r="L10">
-        <v>1.038439648565407</v>
+        <v>0.9426347564565177</v>
       </c>
       <c r="M10">
-        <v>1.045746068158165</v>
+        <v>0.9392351120140996</v>
       </c>
       <c r="N10">
-        <v>1.014394034301038</v>
+        <v>0.9791556328663684</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025123900402846</v>
+        <v>0.8950054266303942</v>
       </c>
       <c r="D11">
-        <v>1.026780828315563</v>
+        <v>0.9131142569667504</v>
       </c>
       <c r="E11">
-        <v>1.033763139320058</v>
+        <v>0.9185800428959359</v>
       </c>
       <c r="F11">
-        <v>1.040962044892833</v>
+        <v>0.9142917536441004</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.031764036587678</v>
+        <v>0.9295073411660999</v>
       </c>
       <c r="K11">
-        <v>1.030382448758077</v>
+        <v>0.9298844283315735</v>
       </c>
       <c r="L11">
-        <v>1.037338555146756</v>
+        <v>0.9352201207338232</v>
       </c>
       <c r="M11">
-        <v>1.044510850272172</v>
+        <v>0.9310337224672915</v>
       </c>
       <c r="N11">
-        <v>1.014000783690352</v>
+        <v>0.9763960268013862</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02462518434037</v>
+        <v>0.8914142279371655</v>
       </c>
       <c r="D12">
-        <v>1.026331089032654</v>
+        <v>0.9099975085832575</v>
       </c>
       <c r="E12">
-        <v>1.033306523602899</v>
+        <v>0.9154229059150668</v>
       </c>
       <c r="F12">
-        <v>1.040455829196424</v>
+        <v>0.9108228062241122</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.031355129511133</v>
+        <v>0.9266486253057036</v>
       </c>
       <c r="K12">
-        <v>1.029979872410065</v>
+        <v>0.9270791241618939</v>
       </c>
       <c r="L12">
-        <v>1.036928750016816</v>
+        <v>0.9323720640021281</v>
       </c>
       <c r="M12">
-        <v>1.044051245781936</v>
+        <v>0.9278841357128648</v>
       </c>
       <c r="N12">
-        <v>1.013854259460922</v>
+        <v>0.9753362633093661</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024732198639214</v>
+        <v>0.8921903568258629</v>
       </c>
       <c r="D13">
-        <v>1.026427593465892</v>
+        <v>0.9106709009091138</v>
       </c>
       <c r="E13">
-        <v>1.033404503200311</v>
+        <v>0.9161050187395342</v>
       </c>
       <c r="F13">
-        <v>1.04056444765997</v>
+        <v>0.9115723030907881</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.031442879170226</v>
+        <v>0.9272663850128363</v>
       </c>
       <c r="K13">
-        <v>1.030066263295587</v>
+        <v>0.9276853186164378</v>
       </c>
       <c r="L13">
-        <v>1.037016691637134</v>
+        <v>0.9329874880031377</v>
       </c>
       <c r="M13">
-        <v>1.04414986864845</v>
+        <v>0.9285646869973208</v>
       </c>
       <c r="N13">
-        <v>1.013885710053951</v>
+        <v>0.9755652478347605</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025082693470842</v>
+        <v>0.894711161309143</v>
       </c>
       <c r="D14">
-        <v>1.026743667941064</v>
+        <v>0.9128587806382548</v>
       </c>
       <c r="E14">
-        <v>1.033725410602492</v>
+        <v>0.9183212534174134</v>
       </c>
       <c r="F14">
-        <v>1.040920215997153</v>
+        <v>0.9140074120429947</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.03173025316356</v>
+        <v>0.9292730676029827</v>
       </c>
       <c r="K14">
-        <v>1.030349188269273</v>
+        <v>0.9296545216398955</v>
       </c>
       <c r="L14">
-        <v>1.037304697185591</v>
+        <v>0.9349867063669167</v>
       </c>
       <c r="M14">
-        <v>1.044472875477545</v>
+        <v>0.930775582890811</v>
       </c>
       <c r="N14">
-        <v>1.013988681248464</v>
+        <v>0.9763091668409788</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025298534092969</v>
+        <v>0.8962476919080188</v>
       </c>
       <c r="D15">
-        <v>1.026938313214992</v>
+        <v>0.9141929427663933</v>
       </c>
       <c r="E15">
-        <v>1.033923033182025</v>
+        <v>0.9196727226962895</v>
       </c>
       <c r="F15">
-        <v>1.041139319053472</v>
+        <v>0.9154923089479696</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.031907203763831</v>
+        <v>0.9304964000735327</v>
       </c>
       <c r="K15">
-        <v>1.030523400046157</v>
+        <v>0.9308550711827656</v>
       </c>
       <c r="L15">
-        <v>1.037482038878835</v>
+        <v>0.9362055803967301</v>
       </c>
       <c r="M15">
-        <v>1.04467178525024</v>
+        <v>0.9321235969990457</v>
       </c>
       <c r="N15">
-        <v>1.014052064873853</v>
+        <v>0.97676275480596</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026553149464475</v>
+        <v>0.9049526138270214</v>
       </c>
       <c r="D16">
-        <v>1.028069745193749</v>
+        <v>0.9217592700990725</v>
       </c>
       <c r="E16">
-        <v>1.035071788229111</v>
+        <v>0.9273374424411618</v>
       </c>
       <c r="F16">
-        <v>1.042413124769006</v>
+        <v>0.9239132620478148</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.032935470802503</v>
+        <v>0.9374292653576951</v>
       </c>
       <c r="K16">
-        <v>1.031535761621134</v>
+        <v>0.9376597472132234</v>
       </c>
       <c r="L16">
-        <v>1.03851261219206</v>
+        <v>0.9431144867443827</v>
       </c>
       <c r="M16">
-        <v>1.045827936183995</v>
+        <v>0.939765840920566</v>
       </c>
       <c r="N16">
-        <v>1.014420069899896</v>
+        <v>0.9793341987336754</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027338688704416</v>
+        <v>0.9102182797661456</v>
       </c>
       <c r="D17">
-        <v>1.028778172292842</v>
+        <v>0.9263425444856751</v>
       </c>
       <c r="E17">
-        <v>1.03579107652728</v>
+        <v>0.9319805213477846</v>
       </c>
       <c r="F17">
-        <v>1.043210878276292</v>
+        <v>0.9290141728349789</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.033579030843156</v>
+        <v>0.9416246399427636</v>
       </c>
       <c r="K17">
-        <v>1.032169375539016</v>
+        <v>0.9417782996617022</v>
       </c>
       <c r="L17">
-        <v>1.039157645108924</v>
+        <v>0.9472964356289968</v>
       </c>
       <c r="M17">
-        <v>1.046551779665148</v>
+        <v>0.9443928996729476</v>
       </c>
       <c r="N17">
-        <v>1.014650110295421</v>
+        <v>0.9808908265824858</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027796367829581</v>
+        <v>0.9132249581557246</v>
       </c>
       <c r="D18">
-        <v>1.029190928668443</v>
+        <v>0.9289616707361221</v>
       </c>
       <c r="E18">
-        <v>1.036210166335453</v>
+        <v>0.9346338943345441</v>
       </c>
       <c r="F18">
-        <v>1.043675745109476</v>
+        <v>0.931929138825996</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.033953895354392</v>
+        <v>0.9440206381600657</v>
       </c>
       <c r="K18">
-        <v>1.032538449618426</v>
+        <v>0.9441306733391808</v>
       </c>
       <c r="L18">
-        <v>1.039533378106239</v>
+        <v>0.9496851271723487</v>
       </c>
       <c r="M18">
-        <v>1.04697349637915</v>
+        <v>0.9470362930512949</v>
       </c>
       <c r="N18">
-        <v>1.01478400341876</v>
+        <v>0.9817799346676666</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027952338491098</v>
+        <v>0.9142396565115917</v>
       </c>
       <c r="D19">
-        <v>1.029331591116166</v>
+        <v>0.9298459155182264</v>
       </c>
       <c r="E19">
-        <v>1.036352988039169</v>
+        <v>0.9355297131044864</v>
       </c>
       <c r="F19">
-        <v>1.043834177304363</v>
+        <v>0.9329132727493435</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.034081628122467</v>
+        <v>0.9448293082595038</v>
       </c>
       <c r="K19">
-        <v>1.032664209843082</v>
+        <v>0.9449246601959655</v>
       </c>
       <c r="L19">
-        <v>1.039661408591046</v>
+        <v>0.9504913902647725</v>
       </c>
       <c r="M19">
-        <v>1.047117208714369</v>
+        <v>0.9479286061370484</v>
       </c>
       <c r="N19">
-        <v>1.014829609319113</v>
+        <v>0.982080027811354</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027254461006635</v>
+        <v>0.9096601303080352</v>
       </c>
       <c r="D20">
-        <v>1.028702212232167</v>
+        <v>0.9258565049350064</v>
       </c>
       <c r="E20">
-        <v>1.035713951343408</v>
+        <v>0.9314881322770437</v>
       </c>
       <c r="F20">
-        <v>1.04312533354489</v>
+        <v>0.9284732373266459</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.033510036188973</v>
+        <v>0.9411798889987519</v>
       </c>
       <c r="K20">
-        <v>1.032101446870572</v>
+        <v>0.9413416662169262</v>
       </c>
       <c r="L20">
-        <v>1.039088491457178</v>
+        <v>0.9468530697925415</v>
       </c>
       <c r="M20">
-        <v>1.046474168867376</v>
+        <v>0.9439022963160757</v>
       </c>
       <c r="N20">
-        <v>1.014625458730945</v>
+        <v>0.9807257954233161</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024979504615255</v>
+        <v>0.8939723487510508</v>
       </c>
       <c r="D21">
-        <v>1.026650612479897</v>
+        <v>0.9122174244825134</v>
       </c>
       <c r="E21">
-        <v>1.033630932052993</v>
+        <v>0.9176715818292769</v>
       </c>
       <c r="F21">
-        <v>1.040815471462718</v>
+        <v>0.9132935885681441</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.031645651643397</v>
+        <v>0.9286848983747186</v>
       </c>
       <c r="K21">
-        <v>1.030265896380904</v>
+        <v>0.9290773239561422</v>
       </c>
       <c r="L21">
-        <v>1.037219909277214</v>
+        <v>0.9344007054997781</v>
       </c>
       <c r="M21">
-        <v>1.044377780019822</v>
+        <v>0.930127518399814</v>
       </c>
       <c r="N21">
-        <v>1.013958371379995</v>
+        <v>0.9760911043699239</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023544334081193</v>
+        <v>0.8833972829495387</v>
       </c>
       <c r="D22">
-        <v>1.025356403140517</v>
+        <v>0.9030482907042042</v>
       </c>
       <c r="E22">
-        <v>1.032316949953445</v>
+        <v>0.9083838757021671</v>
       </c>
       <c r="F22">
-        <v>1.03935893215649</v>
+        <v>0.9030878046054232</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.030468655047859</v>
+        <v>0.9202698249814676</v>
       </c>
       <c r="K22">
-        <v>1.029107131678038</v>
+        <v>0.9208205002186175</v>
       </c>
       <c r="L22">
-        <v>1.036040359360393</v>
+        <v>0.9260184299381881</v>
       </c>
       <c r="M22">
-        <v>1.043055116037392</v>
+        <v>0.9208589865822077</v>
       </c>
       <c r="N22">
-        <v>1.013536319569406</v>
+        <v>0.9729728304561335</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024305611183444</v>
+        <v>0.8890780548704847</v>
       </c>
       <c r="D23">
-        <v>1.026042902609284</v>
+        <v>0.9079712425120301</v>
       </c>
       <c r="E23">
-        <v>1.033013933171654</v>
+        <v>0.9133704182945432</v>
       </c>
       <c r="F23">
-        <v>1.040131482123312</v>
+        <v>0.9085675009303624</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.031093064547596</v>
+        <v>0.9247893752215801</v>
       </c>
       <c r="K23">
-        <v>1.029721866172882</v>
+        <v>0.9252547591947883</v>
       </c>
       <c r="L23">
-        <v>1.036666114214742</v>
+        <v>0.930519951430034</v>
       </c>
       <c r="M23">
-        <v>1.043756728090608</v>
+        <v>0.9258361156323101</v>
       </c>
       <c r="N23">
-        <v>1.013760308969049</v>
+        <v>0.9746471929729134</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027292521460822</v>
+        <v>0.909912532649346</v>
       </c>
       <c r="D24">
-        <v>1.028736536725847</v>
+        <v>0.9260762917774208</v>
       </c>
       <c r="E24">
-        <v>1.035748802311415</v>
+        <v>0.9317107901476321</v>
       </c>
       <c r="F24">
-        <v>1.043163988914263</v>
+        <v>0.9287178479725087</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.033541213488348</v>
+        <v>0.9413810096990095</v>
       </c>
       <c r="K24">
-        <v>1.032132142462995</v>
+        <v>0.9415391153340125</v>
       </c>
       <c r="L24">
-        <v>1.039119740571732</v>
+        <v>0.9470535630147887</v>
       </c>
       <c r="M24">
-        <v>1.046509239356229</v>
+        <v>0.9441241492490748</v>
       </c>
       <c r="N24">
-        <v>1.014636598593961</v>
+        <v>0.9808004237928001</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030738653274016</v>
+        <v>0.9315824796214971</v>
       </c>
       <c r="D25">
-        <v>1.031844499223362</v>
+        <v>0.9449845831003548</v>
       </c>
       <c r="E25">
-        <v>1.038904549512157</v>
+        <v>0.9508675130893673</v>
       </c>
       <c r="F25">
-        <v>1.046665513742671</v>
+        <v>0.9497638171753739</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.036362103250247</v>
+        <v>0.9586541190998445</v>
       </c>
       <c r="K25">
-        <v>1.034909511630667</v>
+        <v>0.9585015310576263</v>
       </c>
       <c r="L25">
-        <v>1.04194735393667</v>
+        <v>0.9642796473022056</v>
       </c>
       <c r="M25">
-        <v>1.049684282814682</v>
+        <v>0.9631954871122989</v>
       </c>
       <c r="N25">
-        <v>1.015642309702364</v>
+        <v>0.9872099530351582</v>
       </c>
     </row>
   </sheetData>
